--- a/data.xlsx
+++ b/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\School\Spring 2020\CS 263\"/>
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Program</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>CPU Time (seconds)</t>
-  </si>
-  <si>
-    <t>User Time (seconds)</t>
   </si>
   <si>
     <t>Link</t>
@@ -87,6 +81,51 @@
   </si>
   <si>
     <t>https://benchmarksgame-team.pages.debian.net/benchmarksgame/program/pidigits-python3-4.html</t>
+  </si>
+  <si>
+    <t>spectral norm 6</t>
+  </si>
+  <si>
+    <t>https://benchmarksgame-team.pages.debian.net/benchmarksgame/program/spectralnorm-python3-6.html</t>
+  </si>
+  <si>
+    <t>n queens</t>
+  </si>
+  <si>
+    <t>https://rosettacode.org/wiki/N-queens_problem#Python:_Simple_Backtracking_Solution</t>
+  </si>
+  <si>
+    <t>https://rosettacode.org/wiki/Knight%27s_tour#Python</t>
+  </si>
+  <si>
+    <t>knight's tour</t>
+  </si>
+  <si>
+    <t>https://rosettacode.org/wiki/4-rings_or_4-squares_puzzle#Python</t>
+  </si>
+  <si>
+    <t>four squares</t>
+  </si>
+  <si>
+    <t>100 prisoners</t>
+  </si>
+  <si>
+    <t>https://rosettacode.org/wiki/100_prisoners#Python</t>
+  </si>
+  <si>
+    <t>CPU Time (seconds) (averaged over 5 trials)</t>
+  </si>
+  <si>
+    <t>(start = a1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>Sys Time (seconds) (averaged over 5 trials)</t>
+  </si>
+  <si>
+    <t>User Time</t>
   </si>
 </sst>
 </file>
@@ -259,49 +298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -338,6 +334,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -362,11 +395,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,10 +418,2500 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance Comparison of Various Python Interpreters and Compilers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPython 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3169999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4069999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.446999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.444000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPython 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.474000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4880000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.437999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.937999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.673</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.267000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.756</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.353999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PyPy 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.11199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4030000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7930000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PyPy 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3519999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.649</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.957000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IronPython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.26100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.007999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.774000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.117000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>40000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>400000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4000000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100000</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>200000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>binary trees 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>fannkuch-redux 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>n-body 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>n-body 1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>pi digits 4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>spectral norm 6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>n queens</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>knight's tour</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>four squares</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100 prisoners</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.820999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.976000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.937999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.229000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.248000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.745999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.494000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.752000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51.373000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.795000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AA0A-4DF8-93EE-553B3591A955}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="346612639"/>
+        <c:axId val="346615967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="346612639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346615967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346615967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346612639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33109557709806819"/>
+          <c:y val="0.96401828848015247"/>
+          <c:w val="0.3453249501918349"/>
+          <c:h val="2.6543934277400053E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>326574</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,22 +2925,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="F1E601"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="2E75B5"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="23B723"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="48B0B8"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="7F7F7F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="538135"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -648,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R19"/>
+  <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,10 +3193,10 @@
     <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -681,7 +3204,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -692,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -703,51 +3226,51 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="I4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="K4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="M4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="N4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>10</v>
-      </c>
       <c r="Q4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>6</v>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -767,36 +3290,42 @@
       <c r="G5" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.41299999999999998</v>
       </c>
-      <c r="I5" s="3">
-        <v>1.0999999999999999E-2</v>
+      <c r="I5" s="2">
+        <f>Y16+C5</f>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>2.8000000000000001E-2</v>
+        <f>Z16+D5</f>
+        <v>3.9E-2</v>
       </c>
       <c r="K5" s="3">
-        <v>7.5999999999999998E-2</v>
+        <f t="shared" ref="K5:N5" si="0">AA16+E5</f>
+        <v>0.11199999999999999</v>
       </c>
       <c r="L5" s="3">
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M5" s="3">
-        <v>1.506</v>
+        <f t="shared" si="0"/>
+        <v>1.5680000000000001</v>
       </c>
       <c r="N5" s="4">
-        <v>10.236000000000001</v>
+        <f t="shared" si="0"/>
+        <v>10.649000000000001</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>14</v>
       </c>
@@ -815,36 +3344,42 @@
       <c r="G6" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.78</v>
       </c>
-      <c r="I6" s="6">
-        <v>0.78400000000000003</v>
+      <c r="I6" s="5">
+        <f>Y17+C6</f>
+        <v>0.8</v>
       </c>
       <c r="J6" s="6">
-        <v>0.76500000000000001</v>
+        <f>Z17+D6</f>
+        <v>0.77700000000000002</v>
       </c>
       <c r="K6" s="6">
-        <v>0.159</v>
+        <f t="shared" ref="K6:K34" si="1">AA17+E6</f>
+        <v>0.215</v>
       </c>
       <c r="L6" s="6">
-        <v>0.16400000000000001</v>
+        <f t="shared" ref="L6:L34" si="2">AB17+F6</f>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M6" s="6">
-        <v>2.3490000000000002</v>
+        <f t="shared" ref="M6:M34" si="3">AC17+G6</f>
+        <v>2.4430000000000001</v>
       </c>
       <c r="N6" s="7">
-        <v>12.175000000000001</v>
+        <f t="shared" ref="N6:N34" si="4">AD17+H6</f>
+        <v>12.955</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
       <c r="B7" s="9">
         <v>19</v>
       </c>
@@ -863,39 +3398,45 @@
       <c r="G7" s="9">
         <v>2.226</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1.0920000000000001</v>
       </c>
-      <c r="I7" s="9">
-        <v>34.281999999999996</v>
-      </c>
-      <c r="J7" s="9">
-        <v>33.554000000000002</v>
-      </c>
-      <c r="K7" s="9">
-        <v>3.9140000000000001</v>
-      </c>
-      <c r="L7" s="9">
-        <v>4.1989999999999998</v>
-      </c>
-      <c r="M7" s="9">
-        <v>48.93</v>
-      </c>
-      <c r="N7" s="10">
-        <v>61.728999999999999</v>
+      <c r="I7" s="5">
+        <f>Y18+C7</f>
+        <v>35.177</v>
+      </c>
+      <c r="J7" s="6">
+        <f>Z18+D7</f>
+        <v>34.474000000000004</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0730000000000004</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3519999999999994</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="3"/>
+        <v>51.155999999999999</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="4"/>
+        <v>62.820999999999998</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15">
         <v>6</v>
       </c>
       <c r="C8" s="3">
@@ -917,75 +3458,93 @@
         <v>0.254</v>
       </c>
       <c r="I8" s="2">
+        <f>Y19+C8</f>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Z19+D8</f>
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6540000000000001</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="16">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D9" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J8" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="N8" s="4">
-        <v>9.3010000000000002</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="19">
-        <v>9</v>
-      </c>
-      <c r="C9" s="21">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>0.09</v>
       </c>
       <c r="H9" s="6">
         <v>0.27600000000000002</v>
       </c>
       <c r="I9" s="5">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="M9" s="21">
-        <v>2.37</v>
+        <f>Y20+C9</f>
+        <v>0.56500000000000006</v>
+      </c>
+      <c r="J9" s="6">
+        <f>Z20+D9</f>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.19799999999999998</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.189</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="3"/>
+        <v>2.46</v>
       </c>
       <c r="N9" s="7">
-        <v>11.765000000000001</v>
+        <f t="shared" si="4"/>
+        <v>12.041</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>10</v>
       </c>
       <c r="C10" s="9">
@@ -1007,29 +3566,41 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="I10" s="8">
-        <v>6.31</v>
+        <f>Y21+C10</f>
+        <v>6.3169999999999993</v>
       </c>
       <c r="J10" s="9">
-        <v>7.4059999999999997</v>
+        <f>Z21+D10</f>
+        <v>7.4109999999999996</v>
       </c>
       <c r="K10" s="9">
-        <v>1.36</v>
+        <f t="shared" si="1"/>
+        <v>1.3820000000000001</v>
       </c>
       <c r="L10" s="9">
-        <v>1.4159999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.4319999999999999</v>
       </c>
       <c r="M10" s="9">
-        <v>11.618</v>
+        <f t="shared" si="3"/>
+        <v>11.901</v>
       </c>
       <c r="N10" s="10">
-        <v>19.911999999999999</v>
+        <f t="shared" si="4"/>
+        <v>20.213999999999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="22">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19">
         <v>40000</v>
       </c>
       <c r="C11" s="3">
@@ -1050,70 +3621,94 @@
       <c r="H11" s="3">
         <v>0.317</v>
       </c>
-      <c r="I11" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="K11" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="N11" s="4">
-        <v>11.659000000000001</v>
+      <c r="I11" s="5">
+        <f>Y22+C11</f>
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J11" s="6">
+        <f>Z22+D11</f>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.101</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="4"/>
+        <v>11.976000000000001</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>400000</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F12" s="21">
-        <v>0.32</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G12" s="18">
         <v>0.191</v>
       </c>
       <c r="H12" s="6">
         <v>0.34799999999999998</v>
       </c>
       <c r="I12" s="5">
-        <v>4.415</v>
-      </c>
-      <c r="J12" s="21">
-        <v>4.3529999999999998</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="M12" s="21">
-        <v>6.6360000000000001</v>
+        <f>Y23+C12</f>
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="J12" s="6">
+        <f>Z23+D12</f>
+        <v>4.3639999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.30300000000000005</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>6.827</v>
       </c>
       <c r="N12" s="7">
-        <v>17.129000000000001</v>
+        <f t="shared" si="4"/>
+        <v>17.477</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>4000000</v>
       </c>
       <c r="C13" s="9">
@@ -1134,30 +3729,42 @@
       <c r="H13" s="9">
         <v>0.46100000000000002</v>
       </c>
-      <c r="I13" s="8">
-        <v>41.665999999999997</v>
-      </c>
-      <c r="J13" s="9">
-        <v>43.264000000000003</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="M13" s="9">
-        <v>55.475000000000001</v>
-      </c>
-      <c r="N13" s="10">
-        <v>48.476999999999997</v>
+      <c r="I13" s="5">
+        <f>Y24+C13</f>
+        <v>41.741999999999997</v>
+      </c>
+      <c r="J13" s="6">
+        <f>Z24+D13</f>
+        <v>43.271000000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8930000000000002</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>57.463999999999999</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="4"/>
+        <v>48.937999999999995</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="18">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15">
         <v>40000</v>
       </c>
       <c r="C14" s="2">
@@ -1175,73 +3782,88 @@
       <c r="G14" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.313</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.45600000000000002</v>
+      <c r="I14" s="2">
+        <f>Y25+C14</f>
+        <v>0.46</v>
       </c>
       <c r="J14" s="3">
-        <v>0.46800000000000003</v>
+        <f>Z25+D14</f>
+        <v>0.47500000000000003</v>
       </c>
       <c r="K14" s="3">
-        <v>9.1999999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.125</v>
       </c>
       <c r="L14" s="3">
-        <v>0.10299999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.129</v>
       </c>
       <c r="M14" s="3">
-        <v>2.0299999999999998</v>
+        <f t="shared" si="3"/>
+        <v>2.1109999999999998</v>
       </c>
       <c r="N14" s="4">
-        <v>11.436999999999999</v>
+        <f t="shared" si="4"/>
+        <v>11.75</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>400000</v>
       </c>
       <c r="C15" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I15" s="21">
-        <v>4.3949999999999996</v>
-      </c>
-      <c r="J15" s="21">
-        <v>4.4790000000000001</v>
-      </c>
-      <c r="K15" s="21">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="L15" s="21">
-        <v>0.62</v>
-      </c>
-      <c r="M15" s="21">
-        <v>7.13</v>
+      <c r="I15" s="5">
+        <f>Y26+C15</f>
+        <v>4.4069999999999991</v>
+      </c>
+      <c r="J15" s="6">
+        <f>Z26+D15</f>
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="3"/>
+        <v>7.3620000000000001</v>
       </c>
       <c r="N15" s="7">
-        <v>16.256</v>
+        <f t="shared" si="4"/>
+        <v>16.551000000000002</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>4000000</v>
       </c>
       <c r="C16" s="8">
@@ -1259,33 +3881,57 @@
       <c r="G16" s="9">
         <v>1.7370000000000001</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>0.45100000000000001</v>
       </c>
-      <c r="I16" s="9">
-        <v>43.682000000000002</v>
+      <c r="I16" s="8">
+        <f>Y27+C16</f>
+        <v>43.744</v>
       </c>
       <c r="J16" s="9">
-        <v>44.427999999999997</v>
+        <f>Z27+D16</f>
+        <v>44.437999999999995</v>
       </c>
       <c r="K16" s="9">
-        <v>5.4770000000000003</v>
+        <f t="shared" si="1"/>
+        <v>5.5060000000000002</v>
       </c>
       <c r="L16" s="9">
-        <v>6.21</v>
+        <f t="shared" si="2"/>
+        <v>6.2329999999999997</v>
       </c>
       <c r="M16" s="9">
-        <v>57.86</v>
+        <f t="shared" si="3"/>
+        <v>59.597000000000001</v>
       </c>
       <c r="N16" s="10">
-        <v>43.972999999999999</v>
+        <f t="shared" si="4"/>
+        <v>47.423999999999999</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1.506</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>10.236000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="18">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
         <v>2500</v>
       </c>
       <c r="C17" s="2">
@@ -1303,73 +3949,121 @@
       <c r="G17" s="3">
         <v>0.49099999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.255</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2.7909999999999999</v>
-      </c>
-      <c r="N17" s="4">
-        <v>11.048</v>
+      <c r="I17" s="5">
+        <f>Y28+C17</f>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J17" s="6">
+        <f>Z28+D17</f>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.372</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.38699999999999996</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="3"/>
+        <v>3.282</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="4"/>
+        <v>11.39</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0.159</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>12.175000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>5000</v>
       </c>
       <c r="C18" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>0.01</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>0.04</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>2.36</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I18" s="21">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="J18" s="21">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="K18" s="21">
-        <v>1.282</v>
-      </c>
-      <c r="L18" s="21">
-        <v>1.319</v>
-      </c>
-      <c r="M18" s="21">
-        <v>6.8479999999999999</v>
+      <c r="I18" s="5">
+        <f>Y29+C18</f>
+        <v>1.002</v>
+      </c>
+      <c r="J18" s="6">
+        <f>Z29+D18</f>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3679999999999999</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="3"/>
+        <v>9.2080000000000002</v>
       </c>
       <c r="N18" s="7">
-        <v>13.823</v>
+        <f t="shared" si="4"/>
+        <v>14.229000000000001</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>34.281999999999996</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>33.554000000000002</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>48.93</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>61.728999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>10000</v>
       </c>
       <c r="C19" s="8">
@@ -1387,26 +4081,1276 @@
       <c r="G19" s="9">
         <v>9.8979999999999997</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>0.46800000000000003</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="5">
+        <f>Y30+C19</f>
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="J19" s="6">
+        <f>Z30+D19</f>
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4030000000000005</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9270000000000005</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="3"/>
+        <v>34.798000000000002</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="4"/>
+        <v>20.983999999999998</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>9.3010000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>500</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.042</v>
+      </c>
+      <c r="I20" s="2">
+        <f>Y31+C20</f>
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <f>Z31+D20</f>
+        <v>3.609</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43700000000000006</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="4"/>
+        <v>19.481000000000002</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>2.37</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>11.765000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1.298</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="I21" s="5">
+        <f>Y32+C21</f>
+        <v>11.349</v>
+      </c>
+      <c r="J21" s="6">
+        <f>Z32+D21</f>
+        <v>14.475</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.649</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="3"/>
+        <v>21.423999999999999</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="4"/>
+        <v>33.4</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>6.31</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>1.36</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>11.618</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>19.911999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="17">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1.831</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="I22" s="8">
+        <f>Y33+C22</f>
+        <v>23.385000000000002</v>
+      </c>
+      <c r="J22" s="9">
+        <f>Z33+D22</f>
+        <v>30.937999999999999</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="1"/>
+        <v>3.01</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="2"/>
+        <v>3.08</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
+        <v>46.259</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
+        <v>56.61</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>11.659000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I23" s="5">
+        <f>Y34+C23</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <f>Z34+D23</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="3"/>
+        <v>1.534</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="4"/>
+        <v>10.922000000000001</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>4.415</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AC23" s="18">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>17.129000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="16">
+        <v>18</v>
+      </c>
+      <c r="C24" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D24" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.302</v>
+      </c>
+      <c r="I24" s="5">
+        <f>Y35+C24</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J24" s="6">
+        <f>Z35+D24</f>
+        <v>0.748</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32399999999999995</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="3"/>
+        <v>4.1379999999999999</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="4"/>
+        <v>21.248000000000001</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>41.665999999999997</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>43.264000000000003</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>55.475000000000001</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>48.476999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="17">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2.254</v>
+      </c>
+      <c r="I25" s="5">
+        <f>Y36+C25</f>
+        <v>13.019</v>
+      </c>
+      <c r="J25" s="6">
+        <f>Z36+D25</f>
+        <v>13.673</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>1.625</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>43.695</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="4"/>
+        <v>45.745999999999995</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>11.436999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I26" s="2">
+        <f>Y37+C26</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="J26" s="3">
+        <f>Z37+D26</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="3"/>
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="4"/>
+        <v>13.494000000000002</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>0.62</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>7.13</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>16.256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="16">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.108</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I27" s="5">
+        <f>Y38+C27</f>
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="J27" s="6">
+        <f>Z38+D27</f>
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>16.745999999999999</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="4"/>
+        <v>23.752000000000002</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>43.682000000000002</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>44.427999999999997</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>6.21</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>57.86</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>46.972999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="17">
+        <v>45</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.153</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I28" s="8">
+        <f>Y39+C28</f>
+        <v>16.771000000000001</v>
+      </c>
+      <c r="J28" s="9">
+        <f>Z39+D28</f>
+        <v>14.267000000000001</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="2"/>
+        <v>3.222</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="3"/>
+        <v>68.26100000000001</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>47.76</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0.253</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>11.048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="15">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I29" s="5">
+        <f>Y40+C29</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <f>Z40+D29</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="3"/>
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="4"/>
+        <v>14.332000000000001</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Z29" s="18">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>1.282</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>1.319</v>
+      </c>
+      <c r="AC29" s="18">
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>13.823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="16">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F30" s="18">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <f>Y41+C30</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <f>Z41+D30</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.159</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>16.53</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="4"/>
+        <v>27.875</v>
+      </c>
+      <c r="Y30" s="9">
         <v>4.0670000000000002</v>
       </c>
-      <c r="J19" s="9">
+      <c r="Z30" s="9">
         <v>4.0060000000000002</v>
       </c>
-      <c r="K19" s="9">
+      <c r="AA30" s="9">
         <v>5.29</v>
       </c>
-      <c r="L19" s="9">
+      <c r="AB30" s="9">
         <v>4.8760000000000003</v>
       </c>
-      <c r="M19" s="9">
+      <c r="AC30" s="9">
         <v>24.9</v>
       </c>
-      <c r="N19" s="10">
+      <c r="AD30" s="10">
         <v>20.515999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="17">
+        <v>50</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6.5720000000000001</v>
+      </c>
+      <c r="I31" s="5">
+        <f>Y42+C31</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <f>Z42+D31</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="1"/>
+        <v>0.106</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="3"/>
+        <v>43.007999999999996</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="4"/>
+        <v>51.373000000000005</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>5.2930000000000001</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>18.439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="19">
+        <v>50000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <f>Y43+C32</f>
+        <v>7.3740000000000006</v>
+      </c>
+      <c r="J32" s="3">
+        <f>Z43+D32</f>
+        <v>14.54</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2529999999999997</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="3"/>
+        <v>12.774000000000001</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="4"/>
+        <v>20.701000000000001</v>
+      </c>
+      <c r="Y32" s="18">
+        <v>11.337</v>
+      </c>
+      <c r="Z32" s="18">
+        <v>14.461</v>
+      </c>
+      <c r="AA32" s="18">
+        <v>1.47</v>
+      </c>
+      <c r="AB32" s="18">
+        <v>1.599</v>
+      </c>
+      <c r="AC32" s="18">
+        <v>20.126000000000001</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>32.158999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I33" s="5">
+        <f>Y44+C33</f>
+        <v>14.446999999999999</v>
+      </c>
+      <c r="J33" s="6">
+        <f>Z44+D33</f>
+        <v>27.756</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="3"/>
+        <v>26.698</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="4"/>
+        <v>27.24</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>23.375</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>30.925999999999998</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>3.032</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>44.427999999999997</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>54.213999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="17">
+        <v>200000</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="F34" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="I34" s="8">
+        <f>Y45+C34</f>
+        <v>28.444000000000003</v>
+      </c>
+      <c r="J34" s="9">
+        <f>Z45+D34</f>
+        <v>59.353999999999999</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="2"/>
+        <v>10.957000000000001</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="3"/>
+        <v>52.117000000000004</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="4"/>
+        <v>40.795000000000002</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1.482</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>10.217000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y35" s="18">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>0.74</v>
+      </c>
+      <c r="AA35" s="18">
+        <v>0.313</v>
+      </c>
+      <c r="AB35" s="18">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AC35" s="18">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>18.946000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y36" s="9">
+        <v>13.013</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>13.666</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>41.648000000000003</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>43.491999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y37" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>2.524</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>12.832000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y38" s="6">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>3.141</v>
+      </c>
+      <c r="AA38" s="18">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="AB38" s="18">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AC38" s="18">
+        <v>16.462</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>22.783000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y39" s="9">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>14.255000000000001</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>5.4729999999999999</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>67.108000000000004</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>46.789000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y40" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>3.133</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>13.701000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y41" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>15.414</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y42" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>40.250999999999998</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>44.801000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y43" s="3">
+        <v>7.3650000000000002</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>14.526999999999999</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>12.512</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>20.318000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y44" s="6">
+        <v>14.436</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>27.742999999999999</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>26.227</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>26.716999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y45" s="9">
+        <v>28.434000000000001</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>59.338000000000001</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>10.916</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>51.216000000000001</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>38.362000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +5360,13 @@
     <hyperlink ref="R6" r:id="rId3"/>
     <hyperlink ref="R7" r:id="rId4"/>
     <hyperlink ref="R8" r:id="rId5"/>
+    <hyperlink ref="R9" r:id="rId6"/>
+    <hyperlink ref="R10" r:id="rId7" location="Python:_Simple_Backtracking_Solution"/>
+    <hyperlink ref="R11" r:id="rId8" location="Python"/>
+    <hyperlink ref="R13" r:id="rId9" location="Python" display="https://rosettacode.org/wiki/100_prisoners - Python"/>
+    <hyperlink ref="R12" r:id="rId10" location="Python"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3173,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,27 +3294,27 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="I5" s="2">
-        <f>Y16+C5</f>
+        <f t="shared" ref="I5:I34" si="0">Y16+C5</f>
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="J5" s="3">
-        <f>Z16+D5</f>
+        <f t="shared" ref="J5:J34" si="1">Z16+D5</f>
         <v>3.9E-2</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:N5" si="0">AA16+E5</f>
+        <f t="shared" ref="K5:N5" si="2">AA16+E5</f>
         <v>0.11199999999999999</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5680000000000001</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.649000000000001</v>
       </c>
       <c r="Q5" t="s">
@@ -3348,27 +3348,27 @@
         <v>0.78</v>
       </c>
       <c r="I6" s="5">
-        <f>Y17+C6</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="J6" s="6">
-        <f>Z17+D6</f>
+        <f t="shared" si="1"/>
         <v>0.77700000000000002</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K34" si="1">AA17+E6</f>
+        <f t="shared" ref="K6:K34" si="3">AA17+E6</f>
         <v>0.215</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" ref="L6:L34" si="2">AB17+F6</f>
+        <f t="shared" ref="L6:L34" si="4">AB17+F6</f>
         <v>0.19600000000000001</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" ref="M6:M34" si="3">AC17+G6</f>
+        <f t="shared" ref="M6:M34" si="5">AC17+G6</f>
         <v>2.4430000000000001</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:N34" si="4">AD17+H6</f>
+        <f t="shared" ref="N6:N34" si="6">AD17+H6</f>
         <v>12.955</v>
       </c>
       <c r="Q6" t="s">
@@ -3402,27 +3402,27 @@
         <v>1.0920000000000001</v>
       </c>
       <c r="I7" s="5">
-        <f>Y18+C7</f>
+        <f t="shared" si="0"/>
         <v>35.177</v>
       </c>
       <c r="J7" s="6">
-        <f>Z18+D7</f>
+        <f t="shared" si="1"/>
         <v>34.474000000000004</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0730000000000004</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3519999999999994</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51.155999999999999</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>62.820999999999998</v>
       </c>
       <c r="Q7" t="s">
@@ -3458,27 +3458,27 @@
         <v>0.254</v>
       </c>
       <c r="I8" s="2">
-        <f>Y19+C8</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="J8" s="3">
-        <f>Z19+D8</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6540000000000001</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.5549999999999997</v>
       </c>
       <c r="Q8" t="s">
@@ -3512,27 +3512,27 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="I9" s="5">
-        <f>Y20+C9</f>
+        <f t="shared" si="0"/>
         <v>0.56500000000000006</v>
       </c>
       <c r="J9" s="6">
-        <f>Z20+D9</f>
+        <f t="shared" si="1"/>
         <v>0.71699999999999997</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19799999999999998</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.189</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.46</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.041</v>
       </c>
       <c r="Q9" t="s">
@@ -3566,27 +3566,27 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="I10" s="8">
-        <f>Y21+C10</f>
+        <f t="shared" si="0"/>
         <v>6.3169999999999993</v>
       </c>
       <c r="J10" s="9">
-        <f>Z21+D10</f>
+        <f t="shared" si="1"/>
         <v>7.4109999999999996</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3820000000000001</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4319999999999999</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.901</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.213999999999999</v>
       </c>
       <c r="Q10" t="s">
@@ -3622,27 +3622,27 @@
         <v>0.317</v>
       </c>
       <c r="I11" s="5">
-        <f>Y22+C11</f>
+        <f t="shared" si="0"/>
         <v>0.48099999999999998</v>
       </c>
       <c r="J11" s="6">
-        <f>Z22+D11</f>
+        <f t="shared" si="1"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.101</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.976000000000001</v>
       </c>
       <c r="Q11" t="s">
@@ -3676,27 +3676,27 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="I12" s="5">
-        <f>Y23+C12</f>
+        <f t="shared" si="0"/>
         <v>4.4240000000000004</v>
       </c>
       <c r="J12" s="6">
-        <f>Z23+D12</f>
+        <f t="shared" si="1"/>
         <v>4.3639999999999999</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30300000000000005</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38800000000000001</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.827</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.477</v>
       </c>
       <c r="Q12" t="s">
@@ -3730,27 +3730,27 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="I13" s="5">
-        <f>Y24+C13</f>
+        <f t="shared" si="0"/>
         <v>41.741999999999997</v>
       </c>
       <c r="J13" s="6">
-        <f>Z24+D13</f>
+        <f t="shared" si="1"/>
         <v>43.271000000000001</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8930000000000002</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0489999999999999</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57.463999999999999</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48.937999999999995</v>
       </c>
       <c r="Q13" t="s">
@@ -3786,27 +3786,27 @@
         <v>0.313</v>
       </c>
       <c r="I14" s="2">
-        <f>Y25+C14</f>
+        <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="J14" s="3">
-        <f>Z25+D14</f>
+        <f t="shared" si="1"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.129</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1109999999999998</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.75</v>
       </c>
     </row>
@@ -3834,27 +3834,27 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="I15" s="5">
-        <f>Y26+C15</f>
+        <f t="shared" si="0"/>
         <v>4.4069999999999991</v>
       </c>
       <c r="J15" s="6">
-        <f>Z26+D15</f>
+        <f t="shared" si="1"/>
         <v>4.4880000000000004</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63900000000000001</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64900000000000002</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3620000000000001</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.551000000000002</v>
       </c>
       <c r="Y15" t="s">
@@ -3885,27 +3885,27 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="I16" s="8">
-        <f>Y27+C16</f>
+        <f t="shared" si="0"/>
         <v>43.744</v>
       </c>
       <c r="J16" s="9">
-        <f>Z27+D16</f>
+        <f t="shared" si="1"/>
         <v>44.437999999999995</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5060000000000002</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.2329999999999997</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>59.597000000000001</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47.423999999999999</v>
       </c>
       <c r="Y16" s="3">
@@ -3953,27 +3953,27 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="I17" s="5">
-        <f>Y28+C17</f>
+        <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
       <c r="J17" s="6">
-        <f>Z28+D17</f>
+        <f t="shared" si="1"/>
         <v>0.26100000000000001</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.372</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38699999999999996</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.282</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.39</v>
       </c>
       <c r="Y17" s="6">
@@ -4019,27 +4019,27 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="I18" s="5">
-        <f>Y29+C18</f>
+        <f t="shared" si="0"/>
         <v>1.002</v>
       </c>
       <c r="J18" s="6">
-        <f>Z29+D18</f>
+        <f t="shared" si="1"/>
         <v>0.96699999999999997</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3220000000000001</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3679999999999999</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.2080000000000002</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.229000000000001</v>
       </c>
       <c r="Y18" s="9">
@@ -4085,27 +4085,27 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="I19" s="5">
-        <f>Y30+C19</f>
+        <f t="shared" si="0"/>
         <v>4.2530000000000001</v>
       </c>
       <c r="J19" s="6">
-        <f>Z30+D19</f>
+        <f t="shared" si="1"/>
         <v>4.0170000000000003</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4030000000000005</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9270000000000005</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34.798000000000002</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.983999999999998</v>
       </c>
       <c r="Y19" s="2">
@@ -4153,27 +4153,27 @@
         <v>1.042</v>
       </c>
       <c r="I20" s="2">
-        <f>Y31+C20</f>
+        <f t="shared" si="0"/>
         <v>2.8159999999999998</v>
       </c>
       <c r="J20" s="3">
-        <f>Z31+D20</f>
+        <f t="shared" si="1"/>
         <v>3.609</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43700000000000006</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49399999999999999</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4850000000000003</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19.481000000000002</v>
       </c>
       <c r="Y20" s="5">
@@ -4219,27 +4219,27 @@
         <v>1.2410000000000001</v>
       </c>
       <c r="I21" s="5">
-        <f>Y32+C21</f>
+        <f t="shared" si="0"/>
         <v>11.349</v>
       </c>
       <c r="J21" s="6">
-        <f>Z32+D21</f>
+        <f t="shared" si="1"/>
         <v>14.475</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5209999999999999</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.649</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.423999999999999</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33.4</v>
       </c>
       <c r="Y21" s="8">
@@ -4285,27 +4285,27 @@
         <v>2.3959999999999999</v>
       </c>
       <c r="I22" s="8">
-        <f>Y33+C22</f>
+        <f t="shared" si="0"/>
         <v>23.385000000000002</v>
       </c>
       <c r="J22" s="9">
-        <f>Z33+D22</f>
+        <f t="shared" si="1"/>
         <v>30.937999999999999</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.01</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.08</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46.259</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>56.61</v>
       </c>
       <c r="Y22" s="2">
@@ -4353,27 +4353,27 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="I23" s="5">
-        <f>Y34+C23</f>
+        <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J23" s="6">
-        <f>Z34+D23</f>
+        <f t="shared" si="1"/>
         <v>3.1E-2</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.534</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.922000000000001</v>
       </c>
       <c r="Y23" s="5">
@@ -4419,27 +4419,27 @@
         <v>2.302</v>
       </c>
       <c r="I24" s="5">
-        <f>Y35+C24</f>
+        <f t="shared" si="0"/>
         <v>0.71599999999999997</v>
       </c>
       <c r="J24" s="6">
-        <f>Z35+D24</f>
+        <f t="shared" si="1"/>
         <v>0.748</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35099999999999998</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32399999999999995</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1379999999999999</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21.248000000000001</v>
       </c>
       <c r="Y24" s="8">
@@ -4485,27 +4485,27 @@
         <v>2.254</v>
       </c>
       <c r="I25" s="5">
-        <f>Y36+C25</f>
+        <f t="shared" si="0"/>
         <v>13.019</v>
       </c>
       <c r="J25" s="6">
-        <f>Z36+D25</f>
+        <f t="shared" si="1"/>
         <v>13.673</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8759999999999999</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43.695</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45.745999999999995</v>
       </c>
       <c r="P25" t="s">
@@ -4556,27 +4556,27 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="I26" s="2">
-        <f>Y37+C26</f>
+        <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
       <c r="J26" s="3">
-        <f>Z37+D26</f>
+        <f t="shared" si="1"/>
         <v>0.26700000000000002</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23099999999999998</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20699999999999999</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6120000000000001</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13.494000000000002</v>
       </c>
       <c r="O26" t="s">
@@ -4625,27 +4625,27 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="I27" s="5">
-        <f>Y38+C27</f>
+        <f t="shared" si="0"/>
         <v>3.8610000000000002</v>
       </c>
       <c r="J27" s="6">
-        <f>Z38+D27</f>
+        <f t="shared" si="1"/>
         <v>3.1539999999999999</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4379999999999999</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.745999999999999</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.752000000000002</v>
       </c>
       <c r="Y27" s="9">
@@ -4691,27 +4691,27 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="I28" s="8">
-        <f>Y39+C28</f>
+        <f t="shared" si="0"/>
         <v>16.771000000000001</v>
       </c>
       <c r="J28" s="9">
-        <f>Z39+D28</f>
+        <f t="shared" si="1"/>
         <v>14.267000000000001</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5279999999999996</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.222</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68.26100000000001</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47.76</v>
       </c>
       <c r="Y28" s="3">
@@ -4759,27 +4759,27 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="I29" s="5">
-        <f>Y40+C29</f>
+        <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="J29" s="6">
-        <f>Z40+D29</f>
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13300000000000001</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16300000000000001</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2949999999999999</v>
       </c>
       <c r="N29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.332000000000001</v>
       </c>
       <c r="Y29" s="18">
@@ -4825,27 +4825,27 @@
         <v>2.7549999999999999</v>
       </c>
       <c r="I30" s="5">
-        <f>Y41+C30</f>
+        <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="J30" s="6">
-        <f>Z41+D30</f>
+        <f t="shared" si="1"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10199999999999999</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.159</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.53</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.875</v>
       </c>
       <c r="Y30" s="9">
@@ -4891,27 +4891,27 @@
         <v>6.5720000000000001</v>
       </c>
       <c r="I31" s="5">
-        <f>Y42+C31</f>
+        <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="J31" s="6">
-        <f>Z42+D31</f>
+        <f t="shared" si="1"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.106</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16900000000000001</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43.007999999999996</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>51.373000000000005</v>
       </c>
       <c r="Y31" s="3">
@@ -4959,27 +4959,27 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="I32" s="2">
-        <f>Y43+C32</f>
+        <f t="shared" si="0"/>
         <v>7.3740000000000006</v>
       </c>
       <c r="J32" s="3">
-        <f>Z43+D32</f>
+        <f t="shared" si="1"/>
         <v>14.54</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.79600000000000004</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2529999999999997</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.774000000000001</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.701000000000001</v>
       </c>
       <c r="Y32" s="18">
@@ -5025,27 +5025,27 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="I33" s="5">
-        <f>Y44+C33</f>
+        <f t="shared" si="0"/>
         <v>14.446999999999999</v>
       </c>
       <c r="J33" s="6">
-        <f>Z44+D33</f>
+        <f t="shared" si="1"/>
         <v>27.756</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5069999999999999</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7169999999999996</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.698</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.24</v>
       </c>
       <c r="Y33" s="9">
@@ -5091,27 +5091,27 @@
         <v>2.4329999999999998</v>
       </c>
       <c r="I34" s="8">
-        <f>Y45+C34</f>
+        <f t="shared" si="0"/>
         <v>28.444000000000003</v>
       </c>
       <c r="J34" s="9">
-        <f>Z45+D34</f>
+        <f t="shared" si="1"/>
         <v>59.353999999999999</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7930000000000001</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.957000000000001</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52.117000000000004</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.795000000000002</v>
       </c>
       <c r="Y34" s="3">
@@ -5363,7 +5363,7 @@
     <hyperlink ref="R9" r:id="rId6"/>
     <hyperlink ref="R10" r:id="rId7" location="Python:_Simple_Backtracking_Solution"/>
     <hyperlink ref="R11" r:id="rId8" location="Python"/>
-    <hyperlink ref="R13" r:id="rId9" location="Python" display="https://rosettacode.org/wiki/100_prisoners - Python"/>
+    <hyperlink ref="R13" r:id="rId9" location="Python"/>
     <hyperlink ref="R12" r:id="rId10" location="Python"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
